--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H2">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I2">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J2">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.89292233333334</v>
+        <v>44.04223000000001</v>
       </c>
       <c r="N2">
-        <v>113.678767</v>
+        <v>132.12669</v>
       </c>
       <c r="O2">
-        <v>0.167590387243122</v>
+        <v>0.1792438957545786</v>
       </c>
       <c r="P2">
-        <v>0.1770445447021447</v>
+        <v>0.1868246872369915</v>
       </c>
       <c r="Q2">
-        <v>572.5212457793137</v>
+        <v>364.6860187480734</v>
       </c>
       <c r="R2">
-        <v>5152.691212013823</v>
+        <v>3282.174168732661</v>
       </c>
       <c r="S2">
-        <v>0.06630068035090189</v>
+        <v>0.05281243299981812</v>
       </c>
       <c r="T2">
-        <v>0.07536109647120091</v>
+        <v>0.05822482509428456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H3">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I3">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J3">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>148.768397</v>
       </c>
       <c r="O3">
-        <v>0.2193211091282201</v>
+        <v>0.2018201397722426</v>
       </c>
       <c r="P3">
-        <v>0.2316935150513456</v>
+        <v>0.2103557520458098</v>
       </c>
       <c r="Q3">
-        <v>749.2434183688102</v>
+        <v>410.6191899415842</v>
       </c>
       <c r="R3">
-        <v>6743.190765319293</v>
+        <v>3695.572709474258</v>
       </c>
       <c r="S3">
-        <v>0.08676594755653068</v>
+        <v>0.05946429899252635</v>
       </c>
       <c r="T3">
-        <v>0.0986230745991722</v>
+        <v>0.0655583962247301</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H4">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I4">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J4">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.78086233333334</v>
+        <v>51.56497066666667</v>
       </c>
       <c r="N4">
-        <v>176.342587</v>
+        <v>154.694912</v>
       </c>
       <c r="O4">
-        <v>0.2599722289632498</v>
+        <v>0.2098600871655206</v>
       </c>
       <c r="P4">
-        <v>0.2746378576309975</v>
+        <v>0.2187357342528896</v>
       </c>
       <c r="Q4">
-        <v>888.1155228679337</v>
+        <v>426.977104912441</v>
       </c>
       <c r="R4">
-        <v>7993.039705811403</v>
+        <v>3842.793944211969</v>
       </c>
       <c r="S4">
-        <v>0.1028479970488957</v>
+        <v>0.06183318961076494</v>
       </c>
       <c r="T4">
-        <v>0.1169028400078278</v>
+        <v>0.06817005855649408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H5">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I5">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J5">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.221842</v>
+        <v>29.9106925</v>
       </c>
       <c r="N5">
-        <v>72.443684</v>
+        <v>59.821385</v>
       </c>
       <c r="O5">
-        <v>0.160199640292699</v>
+        <v>0.1217310987299521</v>
       </c>
       <c r="P5">
-        <v>0.1128245791962719</v>
+        <v>0.08458632803643724</v>
       </c>
       <c r="Q5">
-        <v>547.273021696166</v>
+        <v>247.6716407371483</v>
       </c>
       <c r="R5">
-        <v>3283.638130176996</v>
+        <v>1486.02984442289</v>
       </c>
       <c r="S5">
-        <v>0.06337681604594303</v>
+        <v>0.03586685877700589</v>
       </c>
       <c r="T5">
-        <v>0.04802511148500752</v>
+        <v>0.02636174173834868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H6">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I6">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J6">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.61929799999999</v>
+        <v>70.603826</v>
       </c>
       <c r="N6">
-        <v>130.857894</v>
+        <v>211.811478</v>
       </c>
       <c r="O6">
-        <v>0.1929166343727092</v>
+        <v>0.2873447785777061</v>
       </c>
       <c r="P6">
-        <v>0.2037995034192402</v>
+        <v>0.2994974984278718</v>
       </c>
       <c r="Q6">
-        <v>659.0406147960539</v>
+        <v>584.6258968340546</v>
       </c>
       <c r="R6">
-        <v>5931.365533164485</v>
+        <v>5261.633071506492</v>
       </c>
       <c r="S6">
-        <v>0.07632003434279157</v>
+        <v>0.08466328408338579</v>
       </c>
       <c r="T6">
-        <v>0.08674965988813181</v>
+        <v>0.09333985631148331</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>34.208462</v>
       </c>
       <c r="I7">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J7">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.89292233333334</v>
+        <v>44.04223000000001</v>
       </c>
       <c r="N7">
-        <v>113.678767</v>
+        <v>132.12669</v>
       </c>
       <c r="O7">
-        <v>0.167590387243122</v>
+        <v>0.1792438957545786</v>
       </c>
       <c r="P7">
-        <v>0.1770445447021447</v>
+        <v>0.1868246872369915</v>
       </c>
       <c r="Q7">
-        <v>432.0861979029282</v>
+        <v>502.2056504500867</v>
       </c>
       <c r="R7">
-        <v>3888.775781126354</v>
+        <v>4519.85085405078</v>
       </c>
       <c r="S7">
-        <v>0.05003763458979338</v>
+        <v>0.07272749955585019</v>
       </c>
       <c r="T7">
-        <v>0.0568756004848572</v>
+        <v>0.08018085326988475</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>34.208462</v>
       </c>
       <c r="I8">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J8">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>148.768397</v>
       </c>
       <c r="O8">
-        <v>0.2193211091282201</v>
+        <v>0.2018201397722426</v>
       </c>
       <c r="P8">
-        <v>0.2316935150513456</v>
+        <v>0.2103557520458098</v>
       </c>
       <c r="Q8">
         <v>565.4597839528236</v>
@@ -948,10 +948,10 @@
         <v>5089.138055575413</v>
       </c>
       <c r="S8">
-        <v>0.06548292952188083</v>
+        <v>0.08188772099522089</v>
       </c>
       <c r="T8">
-        <v>0.0744315947105991</v>
+        <v>0.0902798443755229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>34.208462</v>
       </c>
       <c r="I9">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J9">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>58.78086233333334</v>
+        <v>51.56497066666667</v>
       </c>
       <c r="N9">
-        <v>176.342587</v>
+        <v>154.694912</v>
       </c>
       <c r="O9">
-        <v>0.2599722289632498</v>
+        <v>0.2098600871655206</v>
       </c>
       <c r="P9">
-        <v>0.2746378576309975</v>
+        <v>0.2187357342528896</v>
       </c>
       <c r="Q9">
-        <v>670.2676318190215</v>
+        <v>587.9861131939272</v>
       </c>
       <c r="R9">
-        <v>6032.408686371194</v>
+        <v>5291.875018745344</v>
       </c>
       <c r="S9">
-        <v>0.07762017625441739</v>
+        <v>0.08514989775171303</v>
       </c>
       <c r="T9">
-        <v>0.08822747458791642</v>
+        <v>0.09387633975141382</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>34.208462</v>
       </c>
       <c r="I10">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J10">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.221842</v>
+        <v>29.9106925</v>
       </c>
       <c r="N10">
-        <v>72.443684</v>
+        <v>59.821385</v>
       </c>
       <c r="O10">
-        <v>0.160199640292699</v>
+        <v>0.1217310987299521</v>
       </c>
       <c r="P10">
-        <v>0.1128245791962719</v>
+        <v>0.08458632803643724</v>
       </c>
       <c r="Q10">
-        <v>413.0311685423346</v>
+        <v>341.0662625933116</v>
       </c>
       <c r="R10">
-        <v>2478.187011254008</v>
+        <v>2046.39757555987</v>
       </c>
       <c r="S10">
-        <v>0.04783097165802028</v>
+        <v>0.04939191034397943</v>
       </c>
       <c r="T10">
-        <v>0.03624492187565019</v>
+        <v>0.03630250400646745</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>34.208462</v>
       </c>
       <c r="I11">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J11">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.61929799999999</v>
+        <v>70.603826</v>
       </c>
       <c r="N11">
-        <v>130.857894</v>
+        <v>211.811478</v>
       </c>
       <c r="O11">
-        <v>0.1929166343727092</v>
+        <v>0.2873447785777061</v>
       </c>
       <c r="P11">
-        <v>0.2037995034192402</v>
+        <v>0.2994974984278718</v>
       </c>
       <c r="Q11">
-        <v>497.3830326998919</v>
+        <v>805.0827662585372</v>
       </c>
       <c r="R11">
-        <v>4476.447294299027</v>
+        <v>7245.744896326835</v>
       </c>
       <c r="S11">
-        <v>0.05759931828924494</v>
+        <v>0.1165890038732445</v>
       </c>
       <c r="T11">
-        <v>0.06547063709297438</v>
+        <v>0.1285374290266063</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H12">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I12">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J12">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.89292233333334</v>
+        <v>44.04223000000001</v>
       </c>
       <c r="N12">
-        <v>113.678767</v>
+        <v>132.12669</v>
       </c>
       <c r="O12">
-        <v>0.167590387243122</v>
+        <v>0.1792438957545786</v>
       </c>
       <c r="P12">
-        <v>0.1770445447021447</v>
+        <v>0.1868246872369915</v>
       </c>
       <c r="Q12">
-        <v>75.99251266507267</v>
+        <v>82.09693351224334</v>
       </c>
       <c r="R12">
-        <v>683.932613985654</v>
+        <v>738.8724016101901</v>
       </c>
       <c r="S12">
-        <v>0.008800294012514169</v>
+        <v>0.01188896359528666</v>
       </c>
       <c r="T12">
-        <v>0.01000291101904191</v>
+        <v>0.01310738374598774</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H13">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I13">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J13">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>148.768397</v>
       </c>
       <c r="O13">
-        <v>0.2193211091282201</v>
+        <v>0.2018201397722426</v>
       </c>
       <c r="P13">
-        <v>0.2316935150513456</v>
+        <v>0.2103557520458098</v>
       </c>
       <c r="Q13">
-        <v>99.44939227907932</v>
+        <v>92.43726000577188</v>
       </c>
       <c r="R13">
-        <v>895.0445305117139</v>
+        <v>831.9353400519469</v>
       </c>
       <c r="S13">
-        <v>0.01151671211713996</v>
+        <v>0.0133864100891512</v>
       </c>
       <c r="T13">
-        <v>0.01309054519949624</v>
+        <v>0.01475829348903276</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H14">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I14">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J14">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.78086233333334</v>
+        <v>51.56497066666667</v>
       </c>
       <c r="N14">
-        <v>176.342587</v>
+        <v>154.694912</v>
       </c>
       <c r="O14">
-        <v>0.2599722289632498</v>
+        <v>0.2098600871655206</v>
       </c>
       <c r="P14">
-        <v>0.2746378576309975</v>
+        <v>0.2187357342528896</v>
       </c>
       <c r="Q14">
-        <v>117.8823154898327</v>
+        <v>96.11970075952355</v>
       </c>
       <c r="R14">
-        <v>1060.940839408494</v>
+        <v>865.077306835712</v>
       </c>
       <c r="S14">
-        <v>0.01365133220109045</v>
+        <v>0.01391968706053314</v>
       </c>
       <c r="T14">
-        <v>0.015516874902669</v>
+        <v>0.01534622244102084</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H15">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I15">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J15">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.221842</v>
+        <v>29.9106925</v>
       </c>
       <c r="N15">
-        <v>72.443684</v>
+        <v>59.821385</v>
       </c>
       <c r="O15">
-        <v>0.160199640292699</v>
+        <v>0.1217310987299521</v>
       </c>
       <c r="P15">
-        <v>0.1128245791962719</v>
+        <v>0.08458632803643724</v>
       </c>
       <c r="Q15">
-        <v>72.641237926268</v>
+        <v>55.75503632485583</v>
       </c>
       <c r="R15">
-        <v>435.847427557608</v>
+        <v>334.530217949135</v>
       </c>
       <c r="S15">
-        <v>0.00841220047561303</v>
+        <v>0.008074230897080229</v>
       </c>
       <c r="T15">
-        <v>0.006374521329419328</v>
+        <v>0.005934469783595384</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H16">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I16">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J16">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.61929799999999</v>
+        <v>70.603826</v>
       </c>
       <c r="N16">
-        <v>130.857894</v>
+        <v>211.811478</v>
       </c>
       <c r="O16">
-        <v>0.1929166343727092</v>
+        <v>0.2873447785777061</v>
       </c>
       <c r="P16">
-        <v>0.2037995034192402</v>
+        <v>0.2994974984278718</v>
       </c>
       <c r="Q16">
-        <v>87.47649565129198</v>
+        <v>131.6090853899086</v>
       </c>
       <c r="R16">
-        <v>787.2884608616279</v>
+        <v>1184.481768509178</v>
       </c>
       <c r="S16">
-        <v>0.01013019380354832</v>
+        <v>0.01905912386820454</v>
       </c>
       <c r="T16">
-        <v>0.01151455020462368</v>
+        <v>0.02101236566170574</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H17">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I17">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J17">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.89292233333334</v>
+        <v>44.04223000000001</v>
       </c>
       <c r="N17">
-        <v>113.678767</v>
+        <v>132.12669</v>
       </c>
       <c r="O17">
-        <v>0.167590387243122</v>
+        <v>0.1792438957545786</v>
       </c>
       <c r="P17">
-        <v>0.1770445447021447</v>
+        <v>0.1868246872369915</v>
       </c>
       <c r="Q17">
-        <v>306.49841801006</v>
+        <v>202.7224429104151</v>
       </c>
       <c r="R17">
-        <v>1838.99050806036</v>
+        <v>1216.33465746249</v>
       </c>
       <c r="S17">
-        <v>0.03549397300161528</v>
+        <v>0.0293574880400383</v>
       </c>
       <c r="T17">
-        <v>0.0268963024146357</v>
+        <v>0.02157742674399754</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H18">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I18">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J18">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>148.768397</v>
       </c>
       <c r="O18">
-        <v>0.2193211091282201</v>
+        <v>0.2018201397722426</v>
       </c>
       <c r="P18">
-        <v>0.2316935150513456</v>
+        <v>0.2103557520458098</v>
       </c>
       <c r="Q18">
-        <v>401.1063766234599</v>
+        <v>228.2558722064895</v>
       </c>
       <c r="R18">
-        <v>2406.63825974076</v>
+        <v>1369.535233238937</v>
       </c>
       <c r="S18">
-        <v>0.04645002409826966</v>
+        <v>0.03305514151352137</v>
       </c>
       <c r="T18">
-        <v>0.03519847990128695</v>
+        <v>0.02429516086484451</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H19">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I19">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J19">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>58.78086233333334</v>
+        <v>51.56497066666667</v>
       </c>
       <c r="N19">
-        <v>176.342587</v>
+        <v>154.694912</v>
       </c>
       <c r="O19">
-        <v>0.2599722289632498</v>
+        <v>0.2098600871655206</v>
       </c>
       <c r="P19">
-        <v>0.2746378576309975</v>
+        <v>0.2187357342528896</v>
       </c>
       <c r="Q19">
-        <v>475.45135621766</v>
+        <v>237.3489449137921</v>
       </c>
       <c r="R19">
-        <v>2852.70813730596</v>
+        <v>1424.093669482752</v>
       </c>
       <c r="S19">
-        <v>0.05505952595362854</v>
+        <v>0.03437196548929499</v>
       </c>
       <c r="T19">
-        <v>0.04172251048897466</v>
+        <v>0.02526301182107223</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H20">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I20">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J20">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.221842</v>
+        <v>29.9106925</v>
       </c>
       <c r="N20">
-        <v>72.443684</v>
+        <v>59.821385</v>
       </c>
       <c r="O20">
-        <v>0.160199640292699</v>
+        <v>0.1217310987299521</v>
       </c>
       <c r="P20">
-        <v>0.1128245791962719</v>
+        <v>0.08458632803643724</v>
       </c>
       <c r="Q20">
-        <v>292.98181789068</v>
+        <v>137.6762405705213</v>
       </c>
       <c r="R20">
-        <v>1171.92727156272</v>
+        <v>550.704962282085</v>
       </c>
       <c r="S20">
-        <v>0.03392868648945078</v>
+        <v>0.01993774605277738</v>
       </c>
       <c r="T20">
-        <v>0.01714011582210692</v>
+        <v>0.009769347529722973</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H21">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I21">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J21">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>43.61929799999999</v>
+        <v>70.603826</v>
       </c>
       <c r="N21">
-        <v>130.857894</v>
+        <v>211.811478</v>
       </c>
       <c r="O21">
-        <v>0.1929166343727092</v>
+        <v>0.2873447785777061</v>
       </c>
       <c r="P21">
-        <v>0.2037995034192402</v>
+        <v>0.2994974984278718</v>
       </c>
       <c r="Q21">
-        <v>352.81643664492</v>
+        <v>324.983092035573</v>
       </c>
       <c r="R21">
-        <v>2116.89861986952</v>
+        <v>1949.898552213438</v>
       </c>
       <c r="S21">
-        <v>0.04085781961977326</v>
+        <v>0.04706280715976337</v>
       </c>
       <c r="T21">
-        <v>0.03096086967908741</v>
+        <v>0.03459063910617034</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H22">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I22">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J22">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>37.89292233333334</v>
+        <v>44.04223000000001</v>
       </c>
       <c r="N22">
-        <v>113.678767</v>
+        <v>132.12669</v>
       </c>
       <c r="O22">
-        <v>0.167590387243122</v>
+        <v>0.1792438957545786</v>
       </c>
       <c r="P22">
-        <v>0.1770445447021447</v>
+        <v>0.1868246872369915</v>
       </c>
       <c r="Q22">
-        <v>60.08220926939023</v>
+        <v>86.02293129816002</v>
       </c>
       <c r="R22">
-        <v>540.7398834245121</v>
+        <v>774.2063816834401</v>
       </c>
       <c r="S22">
-        <v>0.006957805288297247</v>
+        <v>0.01245751156358536</v>
       </c>
       <c r="T22">
-        <v>0.007908634312408951</v>
+        <v>0.01373419838283692</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H23">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I23">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J23">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>148.768397</v>
       </c>
       <c r="O23">
-        <v>0.2193211091282201</v>
+        <v>0.2018201397722426</v>
       </c>
       <c r="P23">
-        <v>0.2316935150513456</v>
+        <v>0.2103557520458098</v>
       </c>
       <c r="Q23">
-        <v>78.62799885246577</v>
+        <v>96.85774762440798</v>
       </c>
       <c r="R23">
-        <v>707.651989672192</v>
+        <v>871.7197286196719</v>
       </c>
       <c r="S23">
-        <v>0.009105495834398909</v>
+        <v>0.01402656818182274</v>
       </c>
       <c r="T23">
-        <v>0.01034982064079105</v>
+        <v>0.01546405709167951</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H24">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I24">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J24">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.78086233333334</v>
+        <v>51.56497066666667</v>
       </c>
       <c r="N24">
-        <v>176.342587</v>
+        <v>154.694912</v>
       </c>
       <c r="O24">
-        <v>0.2599722289632498</v>
+        <v>0.2098600871655206</v>
       </c>
       <c r="P24">
-        <v>0.2746378576309975</v>
+        <v>0.2187357342528896</v>
       </c>
       <c r="Q24">
-        <v>93.20168132400356</v>
+        <v>100.716288186368</v>
       </c>
       <c r="R24">
-        <v>838.8151319160321</v>
+        <v>906.4465936773121</v>
       </c>
       <c r="S24">
-        <v>0.01079319750521764</v>
+        <v>0.01458534725321447</v>
       </c>
       <c r="T24">
-        <v>0.01226815764360956</v>
+        <v>0.01608010168288859</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H25">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I25">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J25">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.221842</v>
+        <v>29.9106925</v>
       </c>
       <c r="N25">
-        <v>72.443684</v>
+        <v>59.821385</v>
       </c>
       <c r="O25">
-        <v>0.160199640292699</v>
+        <v>0.1217310987299521</v>
       </c>
       <c r="P25">
-        <v>0.1128245791962719</v>
+        <v>0.08458632803643724</v>
       </c>
       <c r="Q25">
-        <v>57.43257994257067</v>
+        <v>58.42132530545999</v>
       </c>
       <c r="R25">
-        <v>344.595479655424</v>
+        <v>350.52795183276</v>
       </c>
       <c r="S25">
-        <v>0.00665096562367185</v>
+        <v>0.008460352659109129</v>
       </c>
       <c r="T25">
-        <v>0.005039908684087956</v>
+        <v>0.006218264978302752</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H26">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I26">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J26">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>43.61929799999999</v>
+        <v>70.603826</v>
       </c>
       <c r="N26">
-        <v>130.857894</v>
+        <v>211.811478</v>
       </c>
       <c r="O26">
-        <v>0.1929166343727092</v>
+        <v>0.2873447785777061</v>
       </c>
       <c r="P26">
-        <v>0.2037995034192402</v>
+        <v>0.2994974984278718</v>
       </c>
       <c r="Q26">
-        <v>69.161828363776</v>
+        <v>137.902828112592</v>
       </c>
       <c r="R26">
-        <v>622.4564552739839</v>
+        <v>1241.125453013328</v>
       </c>
       <c r="S26">
-        <v>0.008009268317351123</v>
+        <v>0.01997055959310799</v>
       </c>
       <c r="T26">
-        <v>0.009103786554422897</v>
+        <v>0.02201720832190602</v>
       </c>
     </row>
   </sheetData>
